--- a/Milestone and task project timeline -- phData.xlsx
+++ b/Milestone and task project timeline -- phData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB72F058-AE3E-4151-A669-159A0893C0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B988E102-0E79-4AC1-B556-A92E1723299D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="723" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pricing" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="172">
   <si>
     <t>Date</t>
   </si>
@@ -454,13 +454,7 @@
     <t>Client Enablement Lead</t>
   </si>
   <si>
-    <t>Rate</t>
-  </si>
-  <si>
     <t>total</t>
-  </si>
-  <si>
-    <t>Contingency</t>
   </si>
   <si>
     <t>Sub-Total</t>
@@ -486,6 +480,84 @@
   </si>
   <si>
     <t>Start, Monday July 7</t>
+  </si>
+  <si>
+    <t>Week1</t>
+  </si>
+  <si>
+    <t>Week2</t>
+  </si>
+  <si>
+    <t>Week3</t>
+  </si>
+  <si>
+    <t>Week4</t>
+  </si>
+  <si>
+    <t>Week5</t>
+  </si>
+  <si>
+    <t>Week6</t>
+  </si>
+  <si>
+    <t>Week7</t>
+  </si>
+  <si>
+    <t>Week8</t>
+  </si>
+  <si>
+    <t>Week9</t>
+  </si>
+  <si>
+    <t>Week10</t>
+  </si>
+  <si>
+    <t>Week11</t>
+  </si>
+  <si>
+    <t>Week12</t>
+  </si>
+  <si>
+    <t>Week13</t>
+  </si>
+  <si>
+    <t>Week14</t>
+  </si>
+  <si>
+    <t>Week15</t>
+  </si>
+  <si>
+    <t>Week16</t>
+  </si>
+  <si>
+    <t>Week17</t>
+  </si>
+  <si>
+    <t>Week18</t>
+  </si>
+  <si>
+    <t>Week19</t>
+  </si>
+  <si>
+    <t>Week20</t>
+  </si>
+  <si>
+    <t>Week21</t>
+  </si>
+  <si>
+    <t>Week22</t>
+  </si>
+  <si>
+    <t>Week23</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total (hrs)</t>
+  </si>
+  <si>
+    <t>Rate (10% Cont included)</t>
   </si>
 </sst>
 </file>
@@ -495,7 +567,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,8 +763,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -709,6 +787,24 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -746,7 +842,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -875,13 +971,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -993,7 +1172,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01260280-29FA-4F29-AFA9-95E32CD1E9D7}" type="CELLRANGE">
+                    <a:fld id="{24F0124E-005F-41A4-8353-851A58670E1F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1033,7 +1212,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BD1A6CF-EE03-4C23-B49B-BA92D2D10F3D}" type="CELLRANGE">
+                    <a:fld id="{2B6971E5-EC07-49D1-B968-741815A8911A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1072,7 +1251,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20AED5A2-3A5D-4191-8C8C-0B0F3C98338A}" type="CELLRANGE">
+                    <a:fld id="{E41BA2A9-785E-4338-9B12-CB556DEC02C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1111,7 +1290,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CAE998E4-AFBB-4283-B772-6A7D8333ECF7}" type="CELLRANGE">
+                    <a:fld id="{2E6DD900-3822-4A8D-8AC2-940146507645}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1144,7 +1323,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4FBC2C3-F4C2-4C91-8123-C5F1B6704DF5}" type="CELLRANGE">
+                    <a:fld id="{45BAEBB4-F5F5-4239-8173-76B45400C6F5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1636,7 +1815,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{223EDEAD-46AF-4A9C-A9BB-766949B39496}" type="CELLRANGE">
+                    <a:fld id="{0DF9F301-D269-4ED7-8DF2-260F10EEAEFE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1675,7 +1854,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B271C364-9498-478F-898B-3756CDA5C647}" type="CELLRANGE">
+                    <a:fld id="{D4DCFA40-9FCB-4048-A72E-30EE8C36B331}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1708,7 +1887,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E03B9625-7424-4228-B0B2-772F63940B28}" type="CELLRANGE">
+                    <a:fld id="{0F9229F0-BB49-4A95-A1F2-8447E5732626}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1748,7 +1927,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A758C580-E307-4EF1-BBB8-85DE78628070}" type="CELLRANGE">
+                    <a:fld id="{05F55D84-8103-4C25-8FEE-31C6246D62BE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1787,7 +1966,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6867CBFB-32D7-4163-B601-F03D71320E3E}" type="CELLRANGE">
+                    <a:fld id="{0519C3EA-8B98-4C4C-8178-E264A2753040}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1826,7 +2005,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{414B25F3-8F69-4CB5-AFC3-C5C812C3E1E1}" type="CELLRANGE">
+                    <a:fld id="{31006AFF-7B3A-4465-AAE4-8DC34E790378}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2333,7 +2512,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B18603D7-3E7F-413E-9261-560EAA8DBEE5}" type="CELLRANGE">
+                    <a:fld id="{B4815180-D533-4B4B-8C0C-A66F2DB1DC27}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2372,7 +2551,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{777723DC-1691-41F5-AC5A-64AD37B537B3}" type="CELLRANGE">
+                    <a:fld id="{42EC4AA0-7EB9-4A7A-B4CC-5B7FB5B74E2C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2411,7 +2590,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33C1DD92-662E-4D6F-B17B-FC557C2F0762}" type="CELLRANGE">
+                    <a:fld id="{FD30BC26-4B8A-4240-9C34-41857221DADB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2450,7 +2629,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3DFF914D-827B-4174-9154-76E21494F068}" type="CELLRANGE">
+                    <a:fld id="{6195819D-4981-409D-BAD4-442378D8AAF6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2489,7 +2668,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB17C9A7-B011-422F-9BE9-E30C32AE66CA}" type="CELLRANGE">
+                    <a:fld id="{1EB7557D-26D5-469E-A4E9-B2B649B4B337}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2522,7 +2701,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14CE593D-877C-4237-BAC0-F4BD1863176C}" type="CELLRANGE">
+                    <a:fld id="{1D661719-8C82-4ACB-A71A-7B4F5DAD92B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2583,7 +2762,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C96F9784-1B8A-4B4F-9116-B8ED80813ADB}" type="CELLRANGE">
+                    <a:fld id="{18BDF9A7-B1D3-4893-A238-BAA8B3110C4A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2617,7 +2796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5FDB874-B11D-4E8B-9C40-73697FEFE1FE}" type="CELLRANGE">
+                    <a:fld id="{369B6D4A-D252-4EDD-9A39-A3B0C847AB3F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3707,6 +3886,79 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B67576D9-B3BC-4F4B-85B8-DCA2C6AE24D6}" name="Table2" displayName="Table2" ref="A2:Y10" totalsRowShown="0" headerRowDxfId="22">
+  <tableColumns count="25">
+    <tableColumn id="1" xr3:uid="{5E9CECC1-3F35-4D66-81D3-4182307EA167}" name="Role" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{12B9E91C-8757-4EB6-BFDD-E25EEBF85FB5}" name="Week1" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{3BEFF15E-2A8A-4D41-ADC7-7AD5657358E3}" name="Week2" dataDxfId="19">
+      <calculatedColumnFormula>Table2[[#This Row],[Week1]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{BA97AA74-C9D8-4AF6-8609-B52DDBEB9B56}" name="Week3" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{A58330D3-FB66-469F-B4D9-C233E8F21909}" name="Week4" dataDxfId="17">
+      <calculatedColumnFormula>Table2[[#This Row],[Week3]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{41B53274-9B3D-4128-AEF9-1CA1800A5818}" name="Week5" dataDxfId="16">
+      <calculatedColumnFormula>Table2[[#This Row],[Week4]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{4D01D22C-5231-4B0B-9D7B-ED23AD3AF8BF}" name="Week6"/>
+    <tableColumn id="8" xr3:uid="{81BD5448-46D9-4D80-B159-C5A2B7737985}" name="Week7"/>
+    <tableColumn id="9" xr3:uid="{3DCED302-1E16-4D5F-BF96-801DC9AF3AAD}" name="Week8" dataDxfId="15">
+      <calculatedColumnFormula>Table2[[#This Row],[Week7]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{8A7C2C32-EE81-4780-AAEA-01B80A7E9541}" name="Week9" dataDxfId="14">
+      <calculatedColumnFormula>Table2[[#This Row],[Week8]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{DBF7D471-B911-4F8F-A504-9A75FF83CD94}" name="Week10">
+      <calculatedColumnFormula>E14</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{D3E34E10-5168-48C0-98D7-8F028EE4989C}" name="Week11" dataDxfId="13">
+      <calculatedColumnFormula>Table2[[#This Row],[Week10]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{960B303A-D068-4B18-8D29-0CA6710155A1}" name="Week12" dataDxfId="12">
+      <calculatedColumnFormula>Table2[[#This Row],[Week11]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{073DF2C4-4B7F-40D6-8711-1A105FCCC04F}" name="Week13" dataDxfId="11">
+      <calculatedColumnFormula>Table2[[#This Row],[Week12]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{EAC5FD0E-4ACF-4B6D-A762-627DC3315713}" name="Week14" dataDxfId="10">
+      <calculatedColumnFormula>Table2[[#This Row],[Week13]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{7FC1B2B0-703B-43AC-AF97-DB1D65BF619D}" name="Week15" dataDxfId="9">
+      <calculatedColumnFormula>Table2[[#This Row],[Week14]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{F5E9F6DD-3995-4B0B-BF5E-6FEDE9887568}" name="Week16" dataDxfId="8">
+      <calculatedColumnFormula>F14</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{13B31DDA-3FCC-4BB6-97BC-20C42AB340AD}" name="Week17" dataDxfId="7">
+      <calculatedColumnFormula>Table2[[#This Row],[Week16]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{1E7A59FF-308D-43D0-957C-D13995297792}" name="Week18" dataDxfId="6">
+      <calculatedColumnFormula>Table2[[#This Row],[Week17]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{EE4FD13D-87FC-4DDD-B5FE-58F2CE69256C}" name="Week19" dataDxfId="5">
+      <calculatedColumnFormula>Table2[[#This Row],[Week18]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{AB20CA24-B6E0-4549-A19B-90329090A3A9}" name="Week20" dataDxfId="4">
+      <calculatedColumnFormula>Table2[[#This Row],[Week19]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{2FF7975F-0BA7-400E-83B7-960E5B9F5E3C}" name="Week21" dataDxfId="3">
+      <calculatedColumnFormula>Table2[[#This Row],[Week20]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{004A652C-6AB8-403E-B34C-4806FE03787C}" name="Week22" dataDxfId="2">
+      <calculatedColumnFormula>Table2[[#This Row],[Week21]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{0A4BEBB7-CA89-4333-BD1A-34BA27D54E4E}" name="Week23" dataDxfId="1">
+      <calculatedColumnFormula>Table2[[#This Row],[Week22]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" xr3:uid="{ACB816CC-3BA5-4FBC-A936-92504BB1FCF7}" name="Total" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Week1]:[Week23]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4006,7 +4258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C07259B-EED8-4A93-AA53-4C6B77EDE847}">
   <dimension ref="M16:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
@@ -4023,13 +4275,13 @@
   <sheetData>
     <row r="16" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M16" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="N16" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" s="47" t="s">
         <v>141</v>
-      </c>
-      <c r="N16" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="O16" s="47" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="13:15" x14ac:dyDescent="0.3">
@@ -4089,7 +4341,7 @@
     </row>
     <row r="22" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N22" s="46">
         <v>23</v>
@@ -4105,10 +4357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C856499-DDCA-4EFF-883C-2C2F00925ACA}">
-  <dimension ref="A19:H30"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4119,251 +4371,1140 @@
     <col min="4" max="4" width="11.33203125" style="46" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" style="46" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="24" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B1" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q2" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="R2" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="S2" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="T2" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="U2" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="V2" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="W2" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="X2" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y2" s="46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="48">
+        <f>B14</f>
+        <v>40</v>
+      </c>
+      <c r="C3" s="46">
+        <f>Table2[[#This Row],[Week1]]</f>
+        <v>40</v>
+      </c>
+      <c r="D3" s="48">
+        <f>C14</f>
+        <v>40</v>
+      </c>
+      <c r="E3" s="46">
+        <f>Table2[[#This Row],[Week3]]</f>
+        <v>40</v>
+      </c>
+      <c r="F3" s="46">
+        <f>Table2[[#This Row],[Week4]]</f>
+        <v>40</v>
+      </c>
+      <c r="G3" s="48">
+        <f>D14</f>
+        <v>30</v>
+      </c>
+      <c r="H3" s="46">
+        <f>Table2[[#This Row],[Week6]]</f>
+        <v>30</v>
+      </c>
+      <c r="I3" s="46">
+        <f>Table2[[#This Row],[Week7]]</f>
+        <v>30</v>
+      </c>
+      <c r="J3" s="46">
+        <f>Table2[[#This Row],[Week8]]</f>
+        <v>30</v>
+      </c>
+      <c r="K3" s="46">
+        <f>E14</f>
+        <v>20</v>
+      </c>
+      <c r="L3" s="46">
+        <f>Table2[[#This Row],[Week10]]</f>
+        <v>20</v>
+      </c>
+      <c r="M3" s="46">
+        <f>Table2[[#This Row],[Week11]]</f>
+        <v>20</v>
+      </c>
+      <c r="N3" s="46">
+        <f>Table2[[#This Row],[Week12]]</f>
+        <v>20</v>
+      </c>
+      <c r="O3" s="46">
+        <f>Table2[[#This Row],[Week13]]</f>
+        <v>20</v>
+      </c>
+      <c r="P3" s="46">
+        <f>Table2[[#This Row],[Week14]]</f>
+        <v>20</v>
+      </c>
+      <c r="Q3" s="46">
+        <f>F14</f>
+        <v>10</v>
+      </c>
+      <c r="R3" s="46">
+        <f>Table2[[#This Row],[Week16]]</f>
+        <v>10</v>
+      </c>
+      <c r="S3" s="46">
+        <f>Table2[[#This Row],[Week17]]</f>
+        <v>10</v>
+      </c>
+      <c r="T3" s="46">
+        <f>Table2[[#This Row],[Week18]]</f>
+        <v>10</v>
+      </c>
+      <c r="U3" s="46">
+        <f>Table2[[#This Row],[Week19]]</f>
+        <v>10</v>
+      </c>
+      <c r="V3" s="46">
+        <f>Table2[[#This Row],[Week20]]</f>
+        <v>10</v>
+      </c>
+      <c r="W3" s="46">
+        <f>Table2[[#This Row],[Week21]]</f>
+        <v>10</v>
+      </c>
+      <c r="X3" s="46">
+        <f>Table2[[#This Row],[Week22]]</f>
+        <v>10</v>
+      </c>
+      <c r="Y3" s="53">
+        <f>SUM(Table2[[#This Row],[Week1]:[Week23]])</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="48">
+        <f t="shared" ref="B4:B9" si="0">B15</f>
+        <v>10</v>
+      </c>
+      <c r="C4" s="46">
+        <f>Table2[[#This Row],[Week1]]</f>
+        <v>10</v>
+      </c>
+      <c r="D4" s="48">
+        <f t="shared" ref="D4:D9" si="1">C15</f>
+        <v>40</v>
+      </c>
+      <c r="E4" s="46">
+        <f>Table2[[#This Row],[Week3]]</f>
+        <v>40</v>
+      </c>
+      <c r="F4" s="46">
+        <f>Table2[[#This Row],[Week4]]</f>
+        <v>40</v>
+      </c>
+      <c r="G4" s="48">
+        <f t="shared" ref="G4:G9" si="2">D15</f>
+        <v>40</v>
+      </c>
+      <c r="H4" s="46">
+        <f>Table2[[#This Row],[Week6]]</f>
+        <v>40</v>
+      </c>
+      <c r="I4" s="46">
+        <f>Table2[[#This Row],[Week7]]</f>
+        <v>40</v>
+      </c>
+      <c r="J4" s="46">
+        <f>Table2[[#This Row],[Week8]]</f>
+        <v>40</v>
+      </c>
+      <c r="K4" s="46">
+        <f>E15</f>
+        <v>40</v>
+      </c>
+      <c r="L4" s="46">
+        <f>Table2[[#This Row],[Week10]]</f>
+        <v>40</v>
+      </c>
+      <c r="M4" s="46">
+        <f>Table2[[#This Row],[Week11]]</f>
+        <v>40</v>
+      </c>
+      <c r="N4" s="46">
+        <f>Table2[[#This Row],[Week12]]</f>
+        <v>40</v>
+      </c>
+      <c r="O4" s="46">
+        <f>Table2[[#This Row],[Week13]]</f>
+        <v>40</v>
+      </c>
+      <c r="P4" s="46">
+        <f>Table2[[#This Row],[Week14]]</f>
+        <v>40</v>
+      </c>
+      <c r="Q4" s="46">
+        <f>F15</f>
+        <v>10</v>
+      </c>
+      <c r="R4" s="46">
+        <f>Table2[[#This Row],[Week16]]</f>
+        <v>10</v>
+      </c>
+      <c r="S4" s="46">
+        <f>Table2[[#This Row],[Week17]]</f>
+        <v>10</v>
+      </c>
+      <c r="T4" s="46">
+        <f>Table2[[#This Row],[Week18]]</f>
+        <v>10</v>
+      </c>
+      <c r="U4" s="46">
+        <f>Table2[[#This Row],[Week19]]</f>
+        <v>10</v>
+      </c>
+      <c r="V4" s="46">
+        <f>Table2[[#This Row],[Week20]]</f>
+        <v>10</v>
+      </c>
+      <c r="W4" s="46">
+        <f>Table2[[#This Row],[Week21]]</f>
+        <v>10</v>
+      </c>
+      <c r="X4" s="46">
+        <f>Table2[[#This Row],[Week22]]</f>
+        <v>10</v>
+      </c>
+      <c r="Y4" s="53">
+        <f>SUM(Table2[[#This Row],[Week1]:[Week23]])</f>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="48">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C5" s="46">
+        <f>Table2[[#This Row],[Week1]]</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="48">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E5" s="46">
+        <f>Table2[[#This Row],[Week3]]</f>
+        <v>40</v>
+      </c>
+      <c r="F5" s="46">
+        <f>Table2[[#This Row],[Week4]]</f>
+        <v>40</v>
+      </c>
+      <c r="G5" s="48">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H5" s="46">
+        <f>Table2[[#This Row],[Week6]]</f>
+        <v>40</v>
+      </c>
+      <c r="I5" s="46">
+        <f>Table2[[#This Row],[Week7]]</f>
+        <v>40</v>
+      </c>
+      <c r="J5" s="46">
+        <f>Table2[[#This Row],[Week8]]</f>
+        <v>40</v>
+      </c>
+      <c r="K5" s="46">
+        <f>E16</f>
+        <v>40</v>
+      </c>
+      <c r="L5" s="46">
+        <f>Table2[[#This Row],[Week10]]</f>
+        <v>40</v>
+      </c>
+      <c r="M5" s="46">
+        <f>Table2[[#This Row],[Week11]]</f>
+        <v>40</v>
+      </c>
+      <c r="N5" s="46">
+        <f>Table2[[#This Row],[Week12]]</f>
+        <v>40</v>
+      </c>
+      <c r="O5" s="46">
+        <f>Table2[[#This Row],[Week13]]</f>
+        <v>40</v>
+      </c>
+      <c r="P5" s="46">
+        <f>Table2[[#This Row],[Week14]]</f>
+        <v>40</v>
+      </c>
+      <c r="Q5" s="46">
+        <f>F16</f>
+        <v>10</v>
+      </c>
+      <c r="R5" s="46">
+        <f>Table2[[#This Row],[Week16]]</f>
+        <v>10</v>
+      </c>
+      <c r="S5" s="46">
+        <f>Table2[[#This Row],[Week17]]</f>
+        <v>10</v>
+      </c>
+      <c r="T5" s="46">
+        <f>Table2[[#This Row],[Week18]]</f>
+        <v>10</v>
+      </c>
+      <c r="U5" s="46">
+        <f>Table2[[#This Row],[Week19]]</f>
+        <v>10</v>
+      </c>
+      <c r="V5" s="46">
+        <f>Table2[[#This Row],[Week20]]</f>
+        <v>10</v>
+      </c>
+      <c r="W5" s="46">
+        <f>Table2[[#This Row],[Week21]]</f>
+        <v>10</v>
+      </c>
+      <c r="X5" s="46">
+        <f>Table2[[#This Row],[Week22]]</f>
+        <v>10</v>
+      </c>
+      <c r="Y5" s="53">
+        <f>SUM(Table2[[#This Row],[Week1]:[Week23]])</f>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="48">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C6" s="46">
+        <f>Table2[[#This Row],[Week1]]</f>
+        <v>20</v>
+      </c>
+      <c r="D6" s="48">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E6" s="46">
+        <f>Table2[[#This Row],[Week3]]</f>
+        <v>40</v>
+      </c>
+      <c r="F6" s="46">
+        <f>Table2[[#This Row],[Week4]]</f>
+        <v>40</v>
+      </c>
+      <c r="G6" s="48">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H6" s="46">
+        <f>Table2[[#This Row],[Week6]]</f>
+        <v>40</v>
+      </c>
+      <c r="I6" s="46">
+        <f>Table2[[#This Row],[Week7]]</f>
+        <v>40</v>
+      </c>
+      <c r="J6" s="46">
+        <f>Table2[[#This Row],[Week8]]</f>
+        <v>40</v>
+      </c>
+      <c r="K6" s="46">
+        <f>E17</f>
+        <v>30</v>
+      </c>
+      <c r="L6" s="46">
+        <f>Table2[[#This Row],[Week10]]</f>
+        <v>30</v>
+      </c>
+      <c r="M6" s="46">
+        <f>Table2[[#This Row],[Week11]]</f>
+        <v>30</v>
+      </c>
+      <c r="N6" s="46">
+        <f>Table2[[#This Row],[Week12]]</f>
+        <v>30</v>
+      </c>
+      <c r="O6" s="46">
+        <f>Table2[[#This Row],[Week13]]</f>
+        <v>30</v>
+      </c>
+      <c r="P6" s="46">
+        <f>Table2[[#This Row],[Week14]]</f>
+        <v>30</v>
+      </c>
+      <c r="Q6" s="46">
+        <f>F17</f>
+        <v>20</v>
+      </c>
+      <c r="R6" s="46">
+        <f>Table2[[#This Row],[Week16]]</f>
+        <v>20</v>
+      </c>
+      <c r="S6" s="46">
+        <f>Table2[[#This Row],[Week17]]</f>
+        <v>20</v>
+      </c>
+      <c r="T6" s="46">
+        <f>Table2[[#This Row],[Week18]]</f>
+        <v>20</v>
+      </c>
+      <c r="U6" s="46">
+        <f>Table2[[#This Row],[Week19]]</f>
+        <v>20</v>
+      </c>
+      <c r="V6" s="46">
+        <f>Table2[[#This Row],[Week20]]</f>
+        <v>20</v>
+      </c>
+      <c r="W6" s="46">
+        <f>Table2[[#This Row],[Week21]]</f>
+        <v>20</v>
+      </c>
+      <c r="X6" s="46">
+        <f>Table2[[#This Row],[Week22]]</f>
+        <v>20</v>
+      </c>
+      <c r="Y6" s="53">
+        <f>SUM(Table2[[#This Row],[Week1]:[Week23]])</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="48">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C7" s="46">
+        <f>Table2[[#This Row],[Week1]]</f>
+        <v>40</v>
+      </c>
+      <c r="D7" s="48">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E7" s="46">
+        <f>Table2[[#This Row],[Week3]]</f>
+        <v>40</v>
+      </c>
+      <c r="F7" s="46">
+        <f>Table2[[#This Row],[Week4]]</f>
+        <v>40</v>
+      </c>
+      <c r="G7" s="48">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H7" s="46">
+        <f>Table2[[#This Row],[Week6]]</f>
+        <v>30</v>
+      </c>
+      <c r="I7" s="46">
+        <f>Table2[[#This Row],[Week7]]</f>
+        <v>30</v>
+      </c>
+      <c r="J7" s="46">
+        <f>Table2[[#This Row],[Week8]]</f>
+        <v>30</v>
+      </c>
+      <c r="K7" s="46">
+        <f>E18</f>
+        <v>20</v>
+      </c>
+      <c r="L7" s="46">
+        <f>Table2[[#This Row],[Week10]]</f>
+        <v>20</v>
+      </c>
+      <c r="M7" s="46">
+        <f>Table2[[#This Row],[Week11]]</f>
+        <v>20</v>
+      </c>
+      <c r="N7" s="46">
+        <f>Table2[[#This Row],[Week12]]</f>
+        <v>20</v>
+      </c>
+      <c r="O7" s="46">
+        <f>Table2[[#This Row],[Week13]]</f>
+        <v>20</v>
+      </c>
+      <c r="P7" s="46">
+        <f>Table2[[#This Row],[Week14]]</f>
+        <v>20</v>
+      </c>
+      <c r="Q7" s="46">
+        <f>F18</f>
+        <v>10</v>
+      </c>
+      <c r="R7" s="46">
+        <f>Table2[[#This Row],[Week16]]</f>
+        <v>10</v>
+      </c>
+      <c r="S7" s="46">
+        <f>Table2[[#This Row],[Week17]]</f>
+        <v>10</v>
+      </c>
+      <c r="T7" s="46">
+        <f>Table2[[#This Row],[Week18]]</f>
+        <v>10</v>
+      </c>
+      <c r="U7" s="46">
+        <f>Table2[[#This Row],[Week19]]</f>
+        <v>10</v>
+      </c>
+      <c r="V7" s="46">
+        <f>Table2[[#This Row],[Week20]]</f>
+        <v>10</v>
+      </c>
+      <c r="W7" s="46">
+        <f>Table2[[#This Row],[Week21]]</f>
+        <v>10</v>
+      </c>
+      <c r="X7" s="46">
+        <f>Table2[[#This Row],[Week22]]</f>
+        <v>10</v>
+      </c>
+      <c r="Y7" s="53">
+        <f>SUM(Table2[[#This Row],[Week1]:[Week23]])</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="48">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="46">
+        <f>Table2[[#This Row],[Week1]]</f>
+        <v>20</v>
+      </c>
+      <c r="D8" s="48">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="46">
+        <f>Table2[[#This Row],[Week3]]</f>
+        <v>20</v>
+      </c>
+      <c r="F8" s="46">
+        <f>Table2[[#This Row],[Week4]]</f>
+        <v>20</v>
+      </c>
+      <c r="G8" s="48">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H8" s="46">
+        <f>Table2[[#This Row],[Week6]]</f>
+        <v>20</v>
+      </c>
+      <c r="I8" s="46">
+        <f>Table2[[#This Row],[Week7]]</f>
+        <v>20</v>
+      </c>
+      <c r="J8" s="46">
+        <f>Table2[[#This Row],[Week8]]</f>
+        <v>20</v>
+      </c>
+      <c r="K8" s="46">
+        <f>E19</f>
+        <v>20</v>
+      </c>
+      <c r="L8" s="46">
+        <f>Table2[[#This Row],[Week10]]</f>
+        <v>20</v>
+      </c>
+      <c r="M8" s="46">
+        <f>Table2[[#This Row],[Week11]]</f>
+        <v>20</v>
+      </c>
+      <c r="N8" s="46">
+        <f>Table2[[#This Row],[Week12]]</f>
+        <v>20</v>
+      </c>
+      <c r="O8" s="46">
+        <f>Table2[[#This Row],[Week13]]</f>
+        <v>20</v>
+      </c>
+      <c r="P8" s="46">
+        <f>Table2[[#This Row],[Week14]]</f>
+        <v>20</v>
+      </c>
+      <c r="Q8" s="46">
+        <f>F19</f>
+        <v>20</v>
+      </c>
+      <c r="R8" s="46">
+        <f>Table2[[#This Row],[Week16]]</f>
+        <v>20</v>
+      </c>
+      <c r="S8" s="46">
+        <f>Table2[[#This Row],[Week17]]</f>
+        <v>20</v>
+      </c>
+      <c r="T8" s="46">
+        <f>Table2[[#This Row],[Week18]]</f>
+        <v>20</v>
+      </c>
+      <c r="U8" s="46">
+        <f>Table2[[#This Row],[Week19]]</f>
+        <v>20</v>
+      </c>
+      <c r="V8" s="46">
+        <f>Table2[[#This Row],[Week20]]</f>
+        <v>20</v>
+      </c>
+      <c r="W8" s="46">
+        <f>Table2[[#This Row],[Week21]]</f>
+        <v>20</v>
+      </c>
+      <c r="X8" s="46">
+        <f>Table2[[#This Row],[Week22]]</f>
+        <v>20</v>
+      </c>
+      <c r="Y8" s="53">
+        <f>SUM(Table2[[#This Row],[Week1]:[Week23]])</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="46">
+        <f>Table2[[#This Row],[Week1]]</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="48">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E9" s="46">
+        <f>Table2[[#This Row],[Week3]]</f>
+        <v>10</v>
+      </c>
+      <c r="F9" s="46">
+        <f>Table2[[#This Row],[Week4]]</f>
+        <v>10</v>
+      </c>
+      <c r="G9" s="48">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H9" s="46">
+        <f>Table2[[#This Row],[Week6]]</f>
+        <v>20</v>
+      </c>
+      <c r="I9" s="46">
+        <f>Table2[[#This Row],[Week7]]</f>
+        <v>20</v>
+      </c>
+      <c r="J9" s="46">
+        <f>Table2[[#This Row],[Week8]]</f>
+        <v>20</v>
+      </c>
+      <c r="K9" s="46">
+        <f>E20</f>
+        <v>30</v>
+      </c>
+      <c r="L9" s="46">
+        <f>Table2[[#This Row],[Week10]]</f>
+        <v>30</v>
+      </c>
+      <c r="M9" s="46">
+        <f>Table2[[#This Row],[Week11]]</f>
+        <v>30</v>
+      </c>
+      <c r="N9" s="46">
+        <f>Table2[[#This Row],[Week12]]</f>
+        <v>30</v>
+      </c>
+      <c r="O9" s="46">
+        <f>Table2[[#This Row],[Week13]]</f>
+        <v>30</v>
+      </c>
+      <c r="P9" s="46">
+        <f>Table2[[#This Row],[Week14]]</f>
+        <v>30</v>
+      </c>
+      <c r="Q9" s="46">
+        <f>F20</f>
+        <v>40</v>
+      </c>
+      <c r="R9" s="46">
+        <f>Table2[[#This Row],[Week16]]</f>
+        <v>40</v>
+      </c>
+      <c r="S9" s="46">
+        <f>Table2[[#This Row],[Week17]]</f>
+        <v>40</v>
+      </c>
+      <c r="T9" s="46">
+        <f>Table2[[#This Row],[Week18]]</f>
+        <v>40</v>
+      </c>
+      <c r="U9" s="46">
+        <f>Table2[[#This Row],[Week19]]</f>
+        <v>40</v>
+      </c>
+      <c r="V9" s="46">
+        <f>Table2[[#This Row],[Week20]]</f>
+        <v>40</v>
+      </c>
+      <c r="W9" s="46">
+        <f>Table2[[#This Row],[Week21]]</f>
+        <v>40</v>
+      </c>
+      <c r="X9" s="46">
+        <f>Table2[[#This Row],[Week22]]</f>
+        <v>40</v>
+      </c>
+      <c r="Y9" s="53">
+        <f>SUM(Table2[[#This Row],[Week1]:[Week23]])</f>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="53"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X11" t="s">
         <v>137</v>
       </c>
-      <c r="H19" t="s">
+      <c r="Y11">
+        <f>SUBTOTAL(109,Table2[Total])</f>
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="48">
+        <v>40</v>
+      </c>
+      <c r="C14" s="48">
+        <v>40</v>
+      </c>
+      <c r="D14" s="48">
+        <v>30</v>
+      </c>
+      <c r="E14" s="48">
+        <v>20</v>
+      </c>
+      <c r="F14" s="48">
+        <v>10</v>
+      </c>
+      <c r="G14" s="48">
+        <f>Y3</f>
+        <v>520</v>
+      </c>
+      <c r="H14" s="40">
+        <v>225</v>
+      </c>
+      <c r="I14" s="41">
+        <f>G14*H14</f>
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="48">
+        <v>10</v>
+      </c>
+      <c r="C15" s="48">
+        <v>40</v>
+      </c>
+      <c r="D15" s="48">
+        <v>40</v>
+      </c>
+      <c r="E15" s="48">
+        <v>40</v>
+      </c>
+      <c r="F15" s="48">
+        <v>10</v>
+      </c>
+      <c r="G15" s="48">
+        <f t="shared" ref="G15:G20" si="3">Y4</f>
+        <v>620</v>
+      </c>
+      <c r="H15" s="40">
+        <v>200</v>
+      </c>
+      <c r="I15" s="41">
+        <f t="shared" ref="I15:I20" si="4">G15*H15</f>
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="48">
+        <v>10</v>
+      </c>
+      <c r="C16" s="48">
+        <v>40</v>
+      </c>
+      <c r="D16" s="48">
+        <v>40</v>
+      </c>
+      <c r="E16" s="48">
+        <v>40</v>
+      </c>
+      <c r="F16" s="48">
+        <v>10</v>
+      </c>
+      <c r="G16" s="48">
+        <f t="shared" si="3"/>
+        <v>620</v>
+      </c>
+      <c r="H16" s="40">
+        <v>175</v>
+      </c>
+      <c r="I16" s="41">
+        <f t="shared" si="4"/>
+        <v>108500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="48">
+        <v>20</v>
+      </c>
+      <c r="C17" s="48">
+        <v>40</v>
+      </c>
+      <c r="D17" s="48">
+        <v>40</v>
+      </c>
+      <c r="E17" s="48">
+        <v>30</v>
+      </c>
+      <c r="F17" s="48">
+        <v>20</v>
+      </c>
+      <c r="G17" s="48">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="H17" s="40">
+        <v>200</v>
+      </c>
+      <c r="I17" s="41">
+        <f t="shared" si="4"/>
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="48">
+        <v>40</v>
+      </c>
+      <c r="C18" s="48">
+        <v>40</v>
+      </c>
+      <c r="D18" s="48">
+        <v>30</v>
+      </c>
+      <c r="E18" s="48">
+        <v>20</v>
+      </c>
+      <c r="F18" s="48">
+        <v>10</v>
+      </c>
+      <c r="G18" s="48">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+      <c r="H18" s="40">
+        <v>150</v>
+      </c>
+      <c r="I18" s="41">
+        <f t="shared" si="4"/>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="48">
+        <v>20</v>
+      </c>
+      <c r="C19" s="48">
+        <v>20</v>
+      </c>
+      <c r="D19" s="48">
+        <v>20</v>
+      </c>
+      <c r="E19" s="48">
+        <v>20</v>
+      </c>
+      <c r="F19" s="48">
+        <v>20</v>
+      </c>
+      <c r="G19" s="48">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="H19" s="40">
+        <v>150</v>
+      </c>
+      <c r="I19" s="41">
+        <f t="shared" si="4"/>
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="48">
+        <v>0</v>
+      </c>
+      <c r="C20" s="48">
+        <v>10</v>
+      </c>
+      <c r="D20" s="48">
+        <v>20</v>
+      </c>
+      <c r="E20" s="48">
+        <v>30</v>
+      </c>
+      <c r="F20" s="48">
+        <v>40</v>
+      </c>
+      <c r="G20" s="48">
+        <f t="shared" si="3"/>
+        <v>610</v>
+      </c>
+      <c r="H20" s="40">
+        <v>160</v>
+      </c>
+      <c r="I20" s="41">
+        <f t="shared" si="4"/>
+        <v>97600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G21" s="46"/>
+      <c r="H21" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="48">
-        <v>40</v>
-      </c>
-      <c r="C21" s="48">
-        <v>40</v>
-      </c>
-      <c r="D21" s="48">
-        <v>30</v>
-      </c>
-      <c r="E21" s="48">
-        <v>20</v>
-      </c>
-      <c r="F21" s="48">
-        <v>10</v>
-      </c>
-      <c r="G21" s="40">
-        <v>225</v>
-      </c>
-      <c r="H21" s="41">
-        <f>SUM(B21:F21)*G21</f>
-        <v>31500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="48">
-        <v>10</v>
-      </c>
-      <c r="C22" s="48">
-        <v>40</v>
-      </c>
-      <c r="D22" s="48">
-        <v>40</v>
-      </c>
-      <c r="E22" s="48">
-        <v>40</v>
-      </c>
-      <c r="F22" s="48">
-        <v>10</v>
-      </c>
-      <c r="G22" s="40">
-        <v>200</v>
-      </c>
-      <c r="H22" s="41">
-        <f>SUM(B22:F22)*G22</f>
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="48">
-        <v>10</v>
-      </c>
-      <c r="C23" s="48">
-        <v>40</v>
-      </c>
-      <c r="D23" s="48">
-        <v>40</v>
-      </c>
-      <c r="E23" s="48">
-        <v>40</v>
-      </c>
-      <c r="F23" s="48">
-        <v>10</v>
-      </c>
-      <c r="G23" s="40">
-        <v>175</v>
-      </c>
-      <c r="H23" s="41">
-        <f>SUM(B23:F23)*G23</f>
-        <v>24500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="48">
-        <v>20</v>
-      </c>
-      <c r="C24" s="48">
-        <v>40</v>
-      </c>
-      <c r="D24" s="48">
-        <v>40</v>
-      </c>
-      <c r="E24" s="48">
-        <v>30</v>
-      </c>
-      <c r="F24" s="48">
-        <v>20</v>
-      </c>
-      <c r="G24" s="40">
-        <v>200</v>
-      </c>
-      <c r="H24" s="41">
-        <f>SUM(B24:F24)*G24</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="48">
-        <v>40</v>
-      </c>
-      <c r="C25" s="48">
-        <v>40</v>
-      </c>
-      <c r="D25" s="48">
-        <v>30</v>
-      </c>
-      <c r="E25" s="48">
-        <v>20</v>
-      </c>
-      <c r="F25" s="48">
-        <v>10</v>
-      </c>
-      <c r="G25" s="40">
-        <v>150</v>
-      </c>
-      <c r="H25" s="41">
-        <f>SUM(B25:F25)*G25</f>
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="48">
-        <v>20</v>
-      </c>
-      <c r="C26" s="48">
-        <v>20</v>
-      </c>
-      <c r="D26" s="48">
-        <v>20</v>
-      </c>
-      <c r="E26" s="48">
-        <v>20</v>
-      </c>
-      <c r="F26" s="48">
-        <v>20</v>
-      </c>
-      <c r="G26" s="40">
-        <v>150</v>
-      </c>
-      <c r="H26" s="41">
-        <f>SUM(B26:F26)*G26</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="48">
-        <v>0</v>
-      </c>
-      <c r="C27" s="48">
-        <v>10</v>
-      </c>
-      <c r="D27" s="48">
-        <v>20</v>
-      </c>
-      <c r="E27" s="48">
-        <v>30</v>
-      </c>
-      <c r="F27" s="48">
-        <v>40</v>
-      </c>
-      <c r="G27" s="40">
-        <v>160</v>
-      </c>
-      <c r="H27" s="41">
-        <f>SUM(B27:F27)*G27</f>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G28" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" s="41">
-        <f>SUM(H21:H27)</f>
-        <v>166000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="42">
-        <v>0.1</v>
-      </c>
+      <c r="I21" s="41">
+        <f>SUM(I14:I20)</f>
+        <v>726100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="42"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+  </mergeCells>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4828,7 +5969,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>2</v>
@@ -4988,7 +6129,7 @@
         <v>45845</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="49">
         <v>30</v>

--- a/Milestone and task project timeline -- phData.xlsx
+++ b/Milestone and task project timeline -- phData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B988E102-0E79-4AC1-B556-A92E1723299D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CF8D33-3492-4599-95C2-A3C14477E877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="723" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="173">
   <si>
     <t>Date</t>
   </si>
@@ -415,6 +415,9 @@
     <t>Enablement &amp; Client Handoff</t>
   </si>
   <si>
+    <t>WBS</t>
+  </si>
+  <si>
     <t>Role</t>
   </si>
   <si>
@@ -470,9 +473,6 @@
   </si>
   <si>
     <t>Project Total</t>
-  </si>
-  <si>
-    <t>HL WBS</t>
   </si>
   <si>
     <t>Duration
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>Rate (10% Cont included)</t>
+  </si>
+  <si>
+    <t>Weekly Hours</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1175,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24F0124E-005F-41A4-8353-851A58670E1F}" type="CELLRANGE">
+                    <a:fld id="{0C2EDEB8-5B27-4F70-BA40-80800E81AEA1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1212,7 +1215,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B6971E5-EC07-49D1-B968-741815A8911A}" type="CELLRANGE">
+                    <a:fld id="{9EE4F3FB-3498-45E2-9B32-920C340BEBED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1251,7 +1254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E41BA2A9-785E-4338-9B12-CB556DEC02C4}" type="CELLRANGE">
+                    <a:fld id="{6949F5D7-3B0B-4B0F-A3A4-67C22E6F3EE8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1290,7 +1293,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E6DD900-3822-4A8D-8AC2-940146507645}" type="CELLRANGE">
+                    <a:fld id="{A1B1EB62-2D42-4856-A9CB-603EE8C392AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1323,7 +1326,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45BAEBB4-F5F5-4239-8173-76B45400C6F5}" type="CELLRANGE">
+                    <a:fld id="{D6F02156-BB21-4C73-9D55-0028B9A7CAB1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1815,7 +1818,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DF9F301-D269-4ED7-8DF2-260F10EEAEFE}" type="CELLRANGE">
+                    <a:fld id="{3C5366A7-E9C6-4EA5-9DF8-021D11A66B89}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1854,7 +1857,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4DCFA40-9FCB-4048-A72E-30EE8C36B331}" type="CELLRANGE">
+                    <a:fld id="{ECE15F63-1DA7-4275-BC60-CEEC80A54775}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1887,7 +1890,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F9229F0-BB49-4A95-A1F2-8447E5732626}" type="CELLRANGE">
+                    <a:fld id="{8372D558-589E-42CE-8812-37884B6A5390}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1927,7 +1930,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05F55D84-8103-4C25-8FEE-31C6246D62BE}" type="CELLRANGE">
+                    <a:fld id="{347FD80B-2CBD-410D-9A12-7A8E16DBF4AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1966,7 +1969,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0519C3EA-8B98-4C4C-8178-E264A2753040}" type="CELLRANGE">
+                    <a:fld id="{F187E990-47DD-43E1-AFE8-4A2FF48F4051}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2005,7 +2008,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31006AFF-7B3A-4465-AAE4-8DC34E790378}" type="CELLRANGE">
+                    <a:fld id="{EDDA92C8-96A7-48C7-AAA4-6E95EC4845FE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2512,7 +2515,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4815180-D533-4B4B-8C0C-A66F2DB1DC27}" type="CELLRANGE">
+                    <a:fld id="{DAEFBFEF-DB1E-4FE5-BF50-3A6871A7CF3A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2551,7 +2554,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42EC4AA0-7EB9-4A7A-B4CC-5B7FB5B74E2C}" type="CELLRANGE">
+                    <a:fld id="{0088E2DA-9BF0-43F7-B4B1-C334A845685F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2590,7 +2593,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD30BC26-4B8A-4240-9C34-41857221DADB}" type="CELLRANGE">
+                    <a:fld id="{B30DAE4A-1C0D-47B1-B48C-E188268F1E27}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2629,7 +2632,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6195819D-4981-409D-BAD4-442378D8AAF6}" type="CELLRANGE">
+                    <a:fld id="{78A1AA51-0A99-4FA8-8DCE-9E6DADF3271B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2668,7 +2671,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1EB7557D-26D5-469E-A4E9-B2B649B4B337}" type="CELLRANGE">
+                    <a:fld id="{9CDC7A77-1242-42C3-8599-111C66BDC6BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2701,7 +2704,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D661719-8C82-4ACB-A71A-7B4F5DAD92B8}" type="CELLRANGE">
+                    <a:fld id="{DEFBDA1C-EAA1-4CF6-899D-4439B83AE1CE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2762,7 +2765,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18BDF9A7-B1D3-4893-A238-BAA8B3110C4A}" type="CELLRANGE">
+                    <a:fld id="{3B68996D-C971-406E-B8E3-0E886F69B24D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2796,7 +2799,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{369B6D4A-D252-4EDD-9A39-A3B0C847AB3F}" type="CELLRANGE">
+                    <a:fld id="{AF84D99E-F1D4-44EC-9693-7DF970207F0C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4259,7 +4262,7 @@
   <dimension ref="M16:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="N17" sqref="N17:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4275,18 +4278,18 @@
   <sheetData>
     <row r="16" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M16" s="43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N16" s="45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O16" s="47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N17" s="46">
         <v>2</v>
@@ -4297,7 +4300,7 @@
     </row>
     <row r="18" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N18" s="46">
         <v>3</v>
@@ -4308,7 +4311,7 @@
     </row>
     <row r="19" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N19" s="46">
         <v>4</v>
@@ -4319,7 +4322,7 @@
     </row>
     <row r="20" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N20" s="46">
         <v>6</v>
@@ -4330,7 +4333,7 @@
     </row>
     <row r="21" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N21" s="46">
         <v>8</v>
@@ -4341,7 +4344,7 @@
     </row>
     <row r="22" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N22" s="46">
         <v>23</v>
@@ -4357,10 +4360,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C856499-DDCA-4EFF-883C-2C2F00925ACA}">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4379,23 +4382,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
       <c r="B1" s="50" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C1" s="50"/>
       <c r="D1" s="51" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
       <c r="G1" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H1" s="52"/>
       <c r="I1" s="52"/>
       <c r="J1" s="52"/>
       <c r="K1" s="51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -4403,7 +4409,7 @@
       <c r="O1" s="51"/>
       <c r="P1" s="51"/>
       <c r="Q1" s="52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R1" s="52"/>
       <c r="S1" s="52"/>
@@ -4415,7 +4421,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>146</v>
@@ -4492,7 +4498,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B3" s="48">
         <f>B14</f>
@@ -4593,7 +4599,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4" s="48">
         <f t="shared" ref="B4:B9" si="0">B15</f>
@@ -4694,7 +4700,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B5" s="48">
         <f t="shared" si="0"/>
@@ -4795,7 +4801,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" s="48">
         <f t="shared" si="0"/>
@@ -4896,7 +4902,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7" s="48">
         <f t="shared" si="0"/>
@@ -4997,7 +5003,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B8" s="48">
         <f t="shared" si="0"/>
@@ -5098,7 +5104,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9" s="48">
         <f t="shared" si="0"/>
@@ -5217,7 +5223,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="X11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Y11">
         <f>SUBTOTAL(109,Table2[Total])</f>
@@ -5226,34 +5232,34 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="G12" s="46"/>
       <c r="H12" t="s">
         <v>171</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G13" s="39" t="s">
         <v>170</v>
@@ -5261,7 +5267,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" s="48">
         <v>40</v>
@@ -5292,7 +5298,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" s="48">
         <v>10</v>
@@ -5323,7 +5329,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B16" s="48">
         <v>10</v>
@@ -5354,7 +5360,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B17" s="48">
         <v>20</v>
@@ -5385,7 +5391,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B18" s="48">
         <v>40</v>
@@ -5416,7 +5422,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19" s="48">
         <v>20</v>
@@ -5447,7 +5453,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" s="48">
         <v>0</v>
@@ -5479,7 +5485,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G21" s="46"/>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I21" s="41">
         <f>SUM(I14:I20)</f>
@@ -5487,10 +5493,315 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="46">
+        <v>2</v>
+      </c>
+      <c r="C22" s="46">
+        <v>3</v>
+      </c>
+      <c r="D22" s="46">
+        <v>4</v>
+      </c>
+      <c r="E22" s="46">
+        <v>6</v>
+      </c>
+      <c r="F22" s="46">
+        <v>8</v>
+      </c>
+      <c r="G22" s="46">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="42"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="48">
+        <f>B14*$B$22</f>
+        <v>80</v>
+      </c>
+      <c r="C25" s="48">
+        <f>C14*$C$22</f>
+        <v>120</v>
+      </c>
+      <c r="D25" s="48">
+        <f>D14*$D$22</f>
+        <v>120</v>
+      </c>
+      <c r="E25" s="48">
+        <f>E14*$E$22</f>
+        <v>120</v>
+      </c>
+      <c r="F25" s="48">
+        <f>F14*$F$22</f>
+        <v>80</v>
+      </c>
+      <c r="G25" s="48">
+        <f>SUM(B25:F25)</f>
+        <v>520</v>
+      </c>
+      <c r="H25" s="40">
+        <v>225</v>
+      </c>
+      <c r="I25" s="41">
+        <f>G25*H25</f>
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="48">
+        <f t="shared" ref="B26:B31" si="5">B15*$B$22</f>
+        <v>20</v>
+      </c>
+      <c r="C26" s="48">
+        <f t="shared" ref="C26:C31" si="6">C15*$C$22</f>
+        <v>120</v>
+      </c>
+      <c r="D26" s="48">
+        <f t="shared" ref="D26:D31" si="7">D15*$D$22</f>
+        <v>160</v>
+      </c>
+      <c r="E26" s="48">
+        <f t="shared" ref="E26:E31" si="8">E15*$E$22</f>
+        <v>240</v>
+      </c>
+      <c r="F26" s="48">
+        <f t="shared" ref="F26:F31" si="9">F15*$F$22</f>
+        <v>80</v>
+      </c>
+      <c r="G26" s="48">
+        <f t="shared" ref="G26:G32" si="10">SUM(B26:F26)</f>
+        <v>620</v>
+      </c>
+      <c r="H26" s="40">
+        <v>200</v>
+      </c>
+      <c r="I26" s="41">
+        <f t="shared" ref="I26:I31" si="11">G26*H26</f>
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="48">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="C27" s="48">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="D27" s="48">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="E27" s="48">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="F27" s="48">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G27" s="48">
+        <f t="shared" si="10"/>
+        <v>620</v>
+      </c>
+      <c r="H27" s="40">
+        <v>175</v>
+      </c>
+      <c r="I27" s="41">
+        <f t="shared" si="11"/>
+        <v>108500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="48">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="C28" s="48">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="D28" s="48">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="E28" s="48">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="F28" s="48">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="G28" s="48">
+        <f t="shared" si="10"/>
+        <v>660</v>
+      </c>
+      <c r="H28" s="40">
+        <v>200</v>
+      </c>
+      <c r="I28" s="41">
+        <f t="shared" si="11"/>
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="48">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="C29" s="48">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="D29" s="48">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="E29" s="48">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="F29" s="48">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G29" s="48">
+        <f t="shared" si="10"/>
+        <v>520</v>
+      </c>
+      <c r="H29" s="40">
+        <v>150</v>
+      </c>
+      <c r="I29" s="41">
+        <f t="shared" si="11"/>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="48">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="C30" s="48">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="D30" s="48">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="E30" s="48">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="F30" s="48">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="G30" s="48">
+        <f t="shared" si="10"/>
+        <v>460</v>
+      </c>
+      <c r="H30" s="40">
+        <v>150</v>
+      </c>
+      <c r="I30" s="41">
+        <f t="shared" si="11"/>
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="48">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="D31" s="48">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="E31" s="48">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="F31" s="48">
+        <f t="shared" si="9"/>
+        <v>320</v>
+      </c>
+      <c r="G31" s="48">
+        <f t="shared" si="10"/>
+        <v>610</v>
+      </c>
+      <c r="H31" s="40">
+        <v>160</v>
+      </c>
+      <c r="I31" s="41">
+        <f t="shared" si="11"/>
+        <v>97600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G32" s="48"/>
+      <c r="H32" t="s">
+        <v>139</v>
+      </c>
+      <c r="I32" s="41">
+        <f>SUM(I25:I31)</f>
+        <v>726100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
